--- a/biology/Zoologie/Euselasia_rubrocilia/Euselasia_rubrocilia.xlsx
+++ b/biology/Zoologie/Euselasia_rubrocilia/Euselasia_rubrocilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia rubrocilia est une espèce de papillons de la famille des Riodinidae et du genre Euselasia.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia rubrocilia a été nommée par Percy Ireland Lathy en 1926[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia rubrocilia a été nommée par Percy Ireland Lathy en 1926
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia rubrocilia est de couleur noire sur avec une les postérieures le tiers coté anal rouge sombre.
 Le revers est marbré marron roux avec aux postérieures une ligne submarginale de petits chevrons noirs soulignés de blanc.
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,12 +618,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Euselasia rubrocilia est présent uniquement en Guyane[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia rubrocilia est présent uniquement en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_rubrocilia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_rubrocilia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
